--- a/medicine/Psychotrope/Bourgogne_aujourd'hui/Bourgogne_aujourd'hui.xlsx
+++ b/medicine/Psychotrope/Bourgogne_aujourd'hui/Bourgogne_aujourd'hui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bourgogne_aujourd%27hui</t>
+          <t>Bourgogne_aujourd'hui</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bourgogne aujourd'hui est un magazine indépendant français à diffusion internationale (80 pays) sur les vins de Bourgogne et du Beaujolais. Il fait partie de la sarl EcriVIN dont le siège social se situe à Beaune (21).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bourgogne_aujourd%27hui</t>
+          <t>Bourgogne_aujourd'hui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le magazine Bourgogne Aujourd'hui est créé en décembre 1994 par Thierry Gaudillère et Christophe Tupinier[1]. La version numérique du magazine est lancée en mai 2013[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le magazine Bourgogne Aujourd'hui est créé en décembre 1994 par Thierry Gaudillère et Christophe Tupinier. La version numérique du magazine est lancée en mai 2013.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bourgogne_aujourd%27hui</t>
+          <t>Bourgogne_aujourd'hui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce magazine décrit et parle du monde viticole bourguignon, par des thèmes comme actualité, économie, culture, histoire, technique viticole et œnologique, dégustations et guides d’achat en vins, gastronomie.
-La rédaction édite également Crémants de France et Beaujolais Aujourd’hui[3].
+La rédaction édite également Crémants de France et Beaujolais Aujourd’hui.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bourgogne_aujourd%27hui</t>
+          <t>Bourgogne_aujourd'hui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Parution et diffusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le magazine est bimestriel, 6 numéros par an (Bourgogne Aujourd'hui) + 3 suppléments (2 Beaujolais Aujourd’hui et 1 Crémants de France).
 Ce magazine est tiré en moyenne à 40 000 exemplaire par parution et diffusé dans le monde en kiosques et maisons de la presse.
